--- a/REyeker-DataAnalyses-Python/data/code_flow/TI_Fibonacci.xlsx
+++ b/REyeker-DataAnalyses-Python/data/code_flow/TI_Fibonacci.xlsx
@@ -396,164 +396,164 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B9">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B10">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B11">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B12">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B13">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B14">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B15">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B16">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B17">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B18">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B19">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B20">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B21">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B22">
         <v>551</v>
